--- a/biology/Biochimie/Facteur_d'élongation/Facteur_d'élongation.xlsx
+++ b/biology/Biochimie/Facteur_d'élongation/Facteur_d'élongation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facteur_d%27%C3%A9longation</t>
+          <t>Facteur_d'élongation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les facteurs d'élongation sont une famille d'enzymes qui interviennent dans la biosynthèse des protéines lors de l'ajout d'acides aminés à l'extrémité C-terminale de la chaîne polypeptidique naissante. Leur rôle est de faciliter l'élongation[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les facteurs d'élongation sont une famille d'enzymes qui interviennent dans la biosynthèse des protéines lors de l'ajout d'acides aminés à l'extrémité C-terminale de la chaîne polypeptidique naissante. Leur rôle est de faciliter l'élongation.
 Il s'agit d'une famille de protéines GTPase qui catalysent l'hydrolyse d'une molécule de GTP en GDP et phosphate, réaction dont la variation d'enthalpie libre actionne cette protéine motrice pour mouvoir l'ARN messager et l'ARN de transfert sur les ribosomes lors de l'élongation de la chaîne naissante au cours de la traduction de l'ARN messager en protéine :
 GTP + H2O  
         ⇌
     {\displaystyle \rightleftharpoons }
   GDP + phosphate :
 transfert de la chaîne naissante du peptidyl-ARNt au site P vers l'aminoacyl-ARNt au site A avec établissement d'une liaison peptidique ;
-translocation de l'ARNt du site P vers le site E et du peptidyl-ARNt du site A vers le site P avec déplacement simultané de l'ARN messager de trois nucléotides par rapport au ribosome[3].
+translocation de l'ARNt du site P vers le site E et du peptidyl-ARNt du site A vers le site P avec déplacement simultané de l'ARN messager de trois nucléotides par rapport au ribosome.
 Les facteurs d'élongation forment un ensemble de protéines intervenant dans la biosynthèse des protéines aussi bien chez les procaryotes que chez les eucaryotes.
 </t>
         </is>
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facteur_d%27%C3%A9longation</t>
+          <t>Facteur_d'élongation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>Procaryotes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sein du complexe du facteur d'initiation, c'est l'IF-2b (98 kDa) qui, chez les procaryotes, se lie au GTP et l'hydrolyse. Lors de l'élongation, l'hydrolyse du GTP est catalysée entre autres par l'EF-Tu (43 kDa) du facteur de transfert et l'EF-G (77 kDa)
 L'EF-Tu et l'eEF-1α catalysent la liaison de l'aminoacyl-ARNt au site ribosomique A, tandis que l'EF-G et l'eEF-2 catalysent la translocation du peptidyl-ARNt du site A vers le site P du ribosome.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facteur_d%27%C3%A9longation</t>
+          <t>Facteur_d'élongation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Eucaryotes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'eIF-2 (105 kDa) qui se lie au GTP chez les eucaryotes. Lors de l'élongation, les protéines qui hydrolysent le GTP sont notamment les facteurs d'élongation eEF-1α (53 kDa) et EF-2 (70-110 kDa)
 </t>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facteur_d%27%C3%A9longation</t>
+          <t>Facteur_d'élongation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Homologies entre les facteurs d’élongation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bactériens       Eucaryotiques/Archéens                                         Fonction
 EF-Tu                         eEF-1A(α)                  permet l’entrée de l’ aminoacyl-ARNt dans un site libre du ribosome.
